--- a/training/output/Resnet34_ViT/W/W1_W3.xlsx
+++ b/training/output/Resnet34_ViT/W/W1_W3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4275</v>
+        <v>0.4647916666666666</v>
       </c>
       <c r="B2" t="n">
-        <v>3.21922324180603</v>
+        <v>2.607279181480408</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7475000000000001</v>
+        <v>0.8335416666666666</v>
       </c>
       <c r="B3" t="n">
-        <v>2.481687679290772</v>
+        <v>1.91686823964119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8791666666666668</v>
+        <v>0.8839583333333333</v>
       </c>
       <c r="B4" t="n">
-        <v>2.205657634735108</v>
+        <v>1.690537452697754</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.88</v>
+        <v>0.8964583333333334</v>
       </c>
       <c r="B5" t="n">
-        <v>2.000654392242432</v>
+        <v>1.532713502645493</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.9037499999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1.876360955238342</v>
+        <v>1.385817557573318</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.90625</v>
       </c>
       <c r="B7" t="n">
-        <v>1.746415157318115</v>
+        <v>1.295581609010696</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.9189583333333333</v>
       </c>
       <c r="B8" t="n">
-        <v>1.74155038356781</v>
+        <v>1.216213494539261</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.95</v>
+        <v>0.90125</v>
       </c>
       <c r="B9" t="n">
-        <v>1.738338050842285</v>
+        <v>1.188340246677399</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9391666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>1.644012961387634</v>
+        <v>1.146667748689651</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9308333333333333</v>
+        <v>0.9364583333333334</v>
       </c>
       <c r="B11" t="n">
-        <v>1.626807551383972</v>
+        <v>1.092157900333405</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9475</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B12" t="n">
-        <v>1.635631723403931</v>
+        <v>1.033906906843185</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9475</v>
+        <v>0.9389583333333333</v>
       </c>
       <c r="B13" t="n">
-        <v>1.590598707199097</v>
+        <v>1.062080800533295</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9525</v>
+        <v>0.926875</v>
       </c>
       <c r="B14" t="n">
-        <v>1.580529108047485</v>
+        <v>1.051427498459816</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9475</v>
+        <v>0.9591666666666666</v>
       </c>
       <c r="B15" t="n">
-        <v>1.540546622276306</v>
+        <v>1.006132826209068</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9575</v>
+        <v>0.9393750000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>1.52111732006073</v>
+        <v>0.9875622987747192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.96</v>
+        <v>0.956875</v>
       </c>
       <c r="B17" t="n">
-        <v>1.536520662307739</v>
+        <v>0.9543311297893524</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.965</v>
+        <v>0.951875</v>
       </c>
       <c r="B18" t="n">
-        <v>1.508641619682312</v>
+        <v>0.9359421133995056</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.965</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>1.499003162384033</v>
+        <v>0.9346994310617447</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.965</v>
+        <v>0.959375</v>
       </c>
       <c r="B20" t="n">
-        <v>1.497099094390869</v>
+        <v>0.93048195540905</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.965</v>
+        <v>0.9768749999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>1.497507514953613</v>
+        <v>0.9284359663724899</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9625</v>
+        <v>0.9468749999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>1.486324262619019</v>
+        <v>0.9036524146795273</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.955</v>
+        <v>0.9568749999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>1.478919520378113</v>
+        <v>0.907717376947403</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9625</v>
+        <v>0.971875</v>
       </c>
       <c r="B24" t="n">
-        <v>1.468766851425171</v>
+        <v>0.908409908413887</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9575</v>
+        <v>0.9495833333333333</v>
       </c>
       <c r="B25" t="n">
-        <v>1.463558478355408</v>
+        <v>0.8891094177961349</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.96</v>
+        <v>0.964375</v>
       </c>
       <c r="B26" t="n">
-        <v>1.463730020523071</v>
+        <v>0.8848871886730194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9525</v>
+        <v>0.9668749999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1.463057889938354</v>
+        <v>0.8834568411111832</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9375</v>
+        <v>0.9768749999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>1.44312653541565</v>
+        <v>0.8604808002710342</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.95</v>
+        <v>0.969375</v>
       </c>
       <c r="B29" t="n">
-        <v>1.455600399971008</v>
+        <v>0.8536444455385208</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.965</v>
+        <v>0.964375</v>
       </c>
       <c r="B30" t="n">
-        <v>1.446798939704895</v>
+        <v>0.8511770516633987</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9675</v>
+        <v>0.969375</v>
       </c>
       <c r="B31" t="n">
-        <v>1.445011954307556</v>
+        <v>0.8639119416475296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.955</v>
+        <v>0.964375</v>
       </c>
       <c r="B32" t="n">
-        <v>1.446389741897583</v>
+        <v>0.8523300141096115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9625</v>
+        <v>0.964375</v>
       </c>
       <c r="B33" t="n">
-        <v>1.432982649803162</v>
+        <v>0.8384691476821899</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.97</v>
+        <v>0.9668749999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>1.426600246429443</v>
+        <v>0.8466345518827438</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.965</v>
+        <v>0.9670833333333334</v>
       </c>
       <c r="B35" t="n">
-        <v>1.429318332672119</v>
+        <v>0.8223735094070435</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9575</v>
+        <v>0.969375</v>
       </c>
       <c r="B36" t="n">
-        <v>1.42466447353363</v>
+        <v>0.826710119843483</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.95</v>
+        <v>0.969375</v>
       </c>
       <c r="B37" t="n">
-        <v>1.431653604507446</v>
+        <v>0.8207547068595886</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9525</v>
+        <v>0.9695833333333334</v>
       </c>
       <c r="B38" t="n">
-        <v>1.419855985641479</v>
+        <v>0.8172132521867752</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9625</v>
+        <v>0.969375</v>
       </c>
       <c r="B39" t="n">
-        <v>1.426950240135193</v>
+        <v>0.8285098969936371</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9575</v>
+        <v>0.964375</v>
       </c>
       <c r="B40" t="n">
-        <v>1.427563195228577</v>
+        <v>0.8860054165124893</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9675</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B41" t="n">
-        <v>1.427718796730042</v>
+        <v>0.8457499146461487</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.965</v>
+        <v>0.9795833333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>1.418151917457581</v>
+        <v>0.8130149394273758</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9625</v>
+        <v>0.9795833333333334</v>
       </c>
       <c r="B43" t="n">
-        <v>1.413655776977539</v>
+        <v>0.8111888021230698</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.96</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B44" t="n">
-        <v>1.419101076126099</v>
+        <v>0.7988913655281067</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.965</v>
+        <v>0.971875</v>
       </c>
       <c r="B45" t="n">
-        <v>1.417079701423645</v>
+        <v>0.7924896627664566</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.97</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B46" t="n">
-        <v>1.417434148788452</v>
+        <v>0.85825115442276</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.965</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B47" t="n">
-        <v>1.410600972175598</v>
+        <v>0.8181163519620895</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.975</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B48" t="n">
-        <v>1.434969501495361</v>
+        <v>0.7957518547773361</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9625</v>
+        <v>0.9670833333333334</v>
       </c>
       <c r="B49" t="n">
-        <v>1.419186310768128</v>
+        <v>0.7939998060464859</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9575</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B50" t="n">
-        <v>1.427152075767517</v>
+        <v>0.7933018207550049</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9425</v>
+        <v>0.974375</v>
       </c>
       <c r="B51" t="n">
-        <v>1.418696117401123</v>
+        <v>0.8117963820695877</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.97</v>
+        <v>0.9795833333333334</v>
       </c>
       <c r="B52" t="n">
-        <v>1.430661420822144</v>
+        <v>0.8117654472589493</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9525</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B53" t="n">
-        <v>1.461154136657715</v>
+        <v>0.7814065665006638</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9525</v>
+        <v>0.9795833333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>1.433203048706055</v>
+        <v>0.7878691703081131</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.955</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B55" t="n">
-        <v>1.418956799507141</v>
+        <v>0.782968282699585</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9575</v>
+        <v>0.9670833333333334</v>
       </c>
       <c r="B56" t="n">
-        <v>1.434995222091675</v>
+        <v>0.7775163650512695</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.955</v>
+        <v>0.9695833333333334</v>
       </c>
       <c r="B57" t="n">
-        <v>1.435517678260803</v>
+        <v>0.7784175723791122</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.965</v>
+        <v>0.9720833333333333</v>
       </c>
       <c r="B58" t="n">
-        <v>1.417927298545837</v>
+        <v>0.7750533670186996</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9575</v>
+        <v>0.9795833333333334</v>
       </c>
       <c r="B59" t="n">
-        <v>1.41231997013092</v>
+        <v>0.7777501493692398</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9225</v>
+        <v>0.9820833333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>1.407218985557556</v>
+        <v>0.7689256817102432</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.96</v>
+        <v>0.9670833333333334</v>
       </c>
       <c r="B61" t="n">
-        <v>1.416849637031555</v>
+        <v>0.8126493990421295</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9625</v>
+        <v>0.9670833333333334</v>
       </c>
       <c r="B62" t="n">
-        <v>1.4236563539505</v>
+        <v>0.7834246456623077</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9525</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B63" t="n">
-        <v>1.436557116508484</v>
+        <v>0.7913284748792648</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9375</v>
+        <v>0.9645833333333333</v>
       </c>
       <c r="B64" t="n">
-        <v>1.436458029747009</v>
+        <v>0.790228858590126</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.95</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B65" t="n">
-        <v>1.417084918022156</v>
+        <v>0.774658590555191</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.97</v>
+        <v>0.9720833333333333</v>
       </c>
       <c r="B66" t="n">
-        <v>1.410951652526856</v>
+        <v>0.7752299159765244</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9675</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B67" t="n">
-        <v>1.420369443893433</v>
+        <v>0.7783625870943069</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.945</v>
+        <v>0.9795833333333334</v>
       </c>
       <c r="B68" t="n">
-        <v>1.413485836982727</v>
+        <v>0.7780932784080505</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.95</v>
+        <v>0.9720833333333333</v>
       </c>
       <c r="B69" t="n">
-        <v>1.405930767059326</v>
+        <v>0.7778647691011429</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.96</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B70" t="n">
-        <v>1.404969129562378</v>
+        <v>0.7705941498279572</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.96</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B71" t="n">
-        <v>1.401945633888245</v>
+        <v>0.7660218179225922</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.965</v>
+        <v>0.9695833333333334</v>
       </c>
       <c r="B72" t="n">
-        <v>1.415430521965027</v>
+        <v>0.7741646319627762</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9583333333333333</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B73" t="n">
-        <v>1.431451506614685</v>
+        <v>0.7803059965372086</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9575</v>
+        <v>0.9695833333333334</v>
       </c>
       <c r="B74" t="n">
-        <v>1.46223747253418</v>
+        <v>0.7817177325487137</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.955</v>
+        <v>0.9695833333333334</v>
       </c>
       <c r="B75" t="n">
-        <v>1.419735989570618</v>
+        <v>0.7716091871261597</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9575</v>
+        <v>0.9695833333333334</v>
       </c>
       <c r="B76" t="n">
-        <v>1.412385053634644</v>
+        <v>0.7725229412317276</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9525</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B77" t="n">
-        <v>1.415422825813293</v>
+        <v>0.759363055229187</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.97</v>
+        <v>0.9670833333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>1.405627660751343</v>
+        <v>0.772654727101326</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.97</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B79" t="n">
-        <v>1.405065112113953</v>
+        <v>0.7546845376491547</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9675</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B80" t="n">
-        <v>1.40912513256073</v>
+        <v>0.7666375339031219</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.965</v>
+        <v>0.9695833333333334</v>
       </c>
       <c r="B81" t="n">
-        <v>1.447841272354126</v>
+        <v>0.773776113986969</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9475</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B82" t="n">
-        <v>1.416950674057007</v>
+        <v>0.7557450383901596</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9725</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B83" t="n">
-        <v>1.419945240020752</v>
+        <v>0.7542454749345779</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.975</v>
+        <v>0.9720833333333333</v>
       </c>
       <c r="B84" t="n">
-        <v>1.413015537261963</v>
+        <v>0.7522994428873062</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9725</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B85" t="n">
-        <v>1.406109099388122</v>
+        <v>0.7605358511209488</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9825</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B86" t="n">
-        <v>1.407948651313782</v>
+        <v>0.7525158375501633</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.975</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B87" t="n">
-        <v>1.401840333938599</v>
+        <v>0.7742627412080765</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9775</v>
+        <v>0.9670833333333334</v>
       </c>
       <c r="B88" t="n">
-        <v>1.400909872055054</v>
+        <v>0.7590052038431168</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9775</v>
+        <v>0.9720833333333333</v>
       </c>
       <c r="B89" t="n">
-        <v>1.406093397140503</v>
+        <v>0.7644196152687073</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.965</v>
+        <v>0.9695833333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>1.414270811080933</v>
+        <v>0.7676057070493698</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9725</v>
+        <v>0.9695833333333334</v>
       </c>
       <c r="B91" t="n">
-        <v>1.406226682662964</v>
+        <v>0.7560159415006638</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.98</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B92" t="n">
-        <v>1.406090793609619</v>
+        <v>0.7560507506132126</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9725</v>
+        <v>0.9670833333333334</v>
       </c>
       <c r="B93" t="n">
-        <v>1.404303593635559</v>
+        <v>0.7489253580570221</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9675</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B94" t="n">
-        <v>1.408492674827576</v>
+        <v>0.7602258175611496</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9775</v>
+        <v>0.9670833333333334</v>
       </c>
       <c r="B95" t="n">
-        <v>1.40298529624939</v>
+        <v>0.7449132800102234</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.965</v>
+        <v>0.9720833333333333</v>
       </c>
       <c r="B96" t="n">
-        <v>1.404882516860962</v>
+        <v>0.7469653487205505</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9675</v>
+        <v>0.9747916666666666</v>
       </c>
       <c r="B97" t="n">
-        <v>1.407758560180664</v>
+        <v>0.7465853244066238</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.975</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B98" t="n">
-        <v>1.397762079238892</v>
+        <v>0.7582767903804779</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.97</v>
+        <v>0.9720833333333333</v>
       </c>
       <c r="B99" t="n">
-        <v>1.401301999092102</v>
+        <v>0.7475908994674683</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.97</v>
+        <v>0.9670833333333334</v>
       </c>
       <c r="B100" t="n">
-        <v>1.397254180908203</v>
+        <v>0.7629400640726089</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9725</v>
+        <v>0.9695833333333334</v>
       </c>
       <c r="B101" t="n">
-        <v>1.40789858341217</v>
+        <v>0.7439087778329849</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.742109015583992</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7448418885469437</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7517105340957642</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7535694092512131</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9745833333333334</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7425045669078827</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7411249876022339</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7751525789499283</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.964375</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7509238868951797</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9745833333333334</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7451540529727936</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9745833333333334</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7529258728027344</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7492450177669525</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7418870776891708</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9845833333333334</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7356819808483124</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9745833333333334</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7504501938819885</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7524779736995697</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7399656921625137</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9795833333333334</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7350580990314484</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9745833333333334</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7486234158277512</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7407330125570297</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7377232611179352</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7406444251537323</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7388574630022049</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9745833333333334</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.745014101266861</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7557246685028076</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9745833333333334</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7453364431858063</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7340245544910431</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7440985441207886</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7474721670150757</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7512946873903275</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7399167120456696</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7407027631998062</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7326837331056595</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7358603626489639</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7397914081811905</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7369371950626373</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7554086297750473</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7472950220108032</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7335643023252487</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7441943734884262</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7352856397628784</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7386648654937744</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7390548139810562</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7487634122371674</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7312996536493301</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7469386458396912</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7367173880338669</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.733112633228302</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7488023638725281</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9795833333333334</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7371916025876999</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7314120978116989</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7337632477283478</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.75467549264431</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7267102599143982</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7321607321500778</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7347336113452911</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7288054525852203</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7348513752222061</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7433558255434036</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7401943057775497</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7281932234764099</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7318671494722366</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7373254001140594</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7351313531398773</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7386278957128525</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7457635253667831</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9745833333333334</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7300548106431961</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7303114235401154</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.730251669883728</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.738616481423378</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7313803881406784</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7245774269104004</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7319026589393616</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9672916666666667</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7296627908945084</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7310748249292374</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7241733968257904</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7346241772174835</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7310785204172134</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7312817871570587</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7291357666254044</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7371184527873993</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7236457467079163</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.727973684668541</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7310145199298859</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7288265824317932</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7264101505279541</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7236873656511307</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7360257208347321</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7304867506027222</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7326407581567764</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7203537821769714</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.721964567899704</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7283566147089005</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7310820370912552</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7266803383827209</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7241158336400986</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7240976691246033</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7313263118267059</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.723576545715332</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7230074405670166</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7208042442798615</v>
       </c>
     </row>
   </sheetData>
